--- a/evaluation/results/hybrid/pca/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="C2">
-        <v>0.4523809523809524</v>
+        <v>0.6140808344198174</v>
       </c>
       <c r="D2">
-        <v>0.07116104868913857</v>
+        <v>0.8820224719101124</v>
       </c>
       <c r="E2">
-        <v>0.1229773462783171</v>
+        <v>0.7240584166026134</v>
       </c>
       <c r="F2">
-        <v>0.08558558558558559</v>
+        <v>0.8112297623148467</v>
       </c>
       <c r="G2">
-        <v>0.07354473723388417</v>
+        <v>0.867464758801445</v>
       </c>
       <c r="H2">
-        <v>0.4925093632958801</v>
+        <v>0.6710782869727447</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="K2">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="L2">
-        <v>496</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4959349593495935</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="C2">
-        <v>0.9138576779026217</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="D2">
-        <v>0.6429512516469038</v>
+        <v>0.5700598802395209</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4523809523809524</v>
+        <v>0.6140808344198174</v>
       </c>
       <c r="C3">
-        <v>0.07116104868913857</v>
+        <v>0.8820224719101124</v>
       </c>
       <c r="D3">
-        <v>0.1229773462783171</v>
+        <v>0.7240584166026134</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="C4">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="D4">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="E4">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4741579558652729</v>
+        <v>0.702389254419211</v>
       </c>
       <c r="C5">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="D5">
-        <v>0.3829642989626105</v>
+        <v>0.6470591484210672</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.474157955865273</v>
+        <v>0.7023892544192111</v>
       </c>
       <c r="C6">
-        <v>0.4925093632958801</v>
+        <v>0.6638576779026217</v>
       </c>
       <c r="D6">
-        <v>0.3829642989626105</v>
+        <v>0.647059148421067</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>496</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
